--- a/similarities/split_global/harmonic_similarity_timestamps_295.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_295.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:03.280000')]</t>
+          <t>('0:00:25.640000', '0:00:56.260000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.880000', '0:00:58.120000')]</t>
+          <t>('0:00:44.160000', '0:00:58.080000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=46.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+          <t>('0:00:42.580000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+          <t>('0:03:02.640000', '0:03:04.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=42.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:09.607823')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:13.400000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:min', 'G:7', 'C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:maj6', 'C:min', 'F:7', 'Bb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:30.988000', '0:00:37.053000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:25.020000', '0:00:31.880000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=30.988']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=25.02']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:00:03.770000', '0:00:05.850000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:01.010000', '0:00:02.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=3.77</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=1.01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:03.440000')]</t>
+          <t>('0:00:24.250000', '0:00:28.150000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:46.580000', '0:00:48.520000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=46.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_44</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F:maj', 'A:min', 'D:min', 'G:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C', 'E:min', 'A:min', 'D:min', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:02:13.589000', '0:02:21.298000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:45.494263', '0:00:53.934716')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=133.589</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=45.494263</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:03:46.020000', '0:04:01.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.300000', '0:00:02.670000')]</t>
+          <t>('0:00:21.440000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=226.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=21.44</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>isophonics_92</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+          <t>('0:00:22.622607', '0:00:29.751133')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:11.510000', '0:00:15.070000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G', 'D', 'E:min7']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C', 'G/3', 'A:min7']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:23.353000', '0:00:33.016000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:37.239569')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=23.353']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_42</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:25.140000', '0:00:31.240000')]</t>
+          <t>('0:00:20.540000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:13.125602', '0:01:18.292043')]</t>
+          <t>('0:00:58.680000', '0:01:01.260000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=25.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-42#t=20.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=73.125602']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=58.68</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:34.860000', '0:00:39.700000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:41.849092', '0:01:46.934263'), ('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:00:35.860000', '0:00:37.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#']]</t>
+          <t>['D/b7', 'G/3', 'D', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.640000', '0:00:41.660000')]</t>
+          <t>('0:00:10.540000', '0:00:13.980000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:47.700000')]</t>
+          <t>('0:00:23.703945', '0:00:29.172244')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:00:00.600000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.703786')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
